--- a/tdse-tp1_00-problem_approach.xlsx
+++ b/tdse-tp1_00-problem_approach.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="60">
   <si>
     <t>Sensor Statechart - State Transition Table</t>
   </si>
@@ -173,6 +173,39 @@
   </si>
   <si>
     <t>EV_SYS_00_WIRELESS_REMOTE_OFF</t>
+  </si>
+  <si>
+    <t>tick_accion &gt; 0</t>
+  </si>
+  <si>
+    <t>tick_accion == 0</t>
+  </si>
+  <si>
+    <t>tick_accion = DEL_SYS_00_MAX</t>
+  </si>
+  <si>
+    <t>tick_accion --</t>
+  </si>
+  <si>
+    <t>raise EV_ACT_00_PRENDIDOO</t>
+  </si>
+  <si>
+    <t>raise EV_ACT_00_APAGADO</t>
+  </si>
+  <si>
+    <t>raise EV_ACT_00_BLINK</t>
+  </si>
+  <si>
+    <t>remote == 0</t>
+  </si>
+  <si>
+    <t>remote == 1</t>
+  </si>
+  <si>
+    <t>remote = DEL_SYS_00_BAJA</t>
+  </si>
+  <si>
+    <t>remote = DEL_SYS_00_ALTA</t>
   </si>
 </sst>
 </file>
@@ -196,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -413,11 +446,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -436,45 +558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -485,12 +568,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -500,13 +608,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,13 +983,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -864,13 +1044,13 @@
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -959,13 +1139,13 @@
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1035,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:E35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1047,7 +1227,7 @@
     <col min="2" max="2" width="31.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
@@ -1056,13 +1236,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1082,7 +1262,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1095,7 +1275,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1108,10 +1288,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1125,8 +1305,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1136,8 +1316,8 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1151,8 +1331,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1164,7 +1344,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1179,7 +1359,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1190,10 +1370,10 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="33" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1207,8 +1387,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1220,8 +1400,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1235,8 +1415,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
@@ -1247,289 +1427,370 @@
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="29" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
+      <c r="E18" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="25"/>
       <c r="B19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
+      <c r="E19" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="25"/>
       <c r="B20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
-      <c r="B21" s="11" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="60"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="26"/>
+      <c r="B21" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="19" t="s">
+      <c r="C21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="29" t="s">
+      <c r="C22" s="41"/>
+      <c r="D22" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="40"/>
+      <c r="B23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="40"/>
+      <c r="B24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="57"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="25"/>
+      <c r="B25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="51"/>
+      <c r="B26" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="52"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="25"/>
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="25"/>
+      <c r="B29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="26"/>
+      <c r="B30" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
-      <c r="B23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="11" t="s">
+      <c r="E31" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="25"/>
+      <c r="B32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="25"/>
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="25"/>
+      <c r="B34" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="57"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="25"/>
+      <c r="B35" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="19"/>
-      <c r="B26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="19"/>
-      <c r="B27" s="11" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="26"/>
+      <c r="B36" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="19"/>
-      <c r="B30" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="19"/>
-      <c r="B31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="19"/>
-      <c r="B32" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="20"/>
-      <c r="B33" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="25"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
+  <mergeCells count="29">
+    <mergeCell ref="E33:E34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C31:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tdse-tp1_00-problem_approach.xlsx
+++ b/tdse-tp1_00-problem_approach.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="79">
   <si>
     <t>Sensor Statechart - State Transition Table</t>
   </si>
@@ -175,27 +175,6 @@
     <t>EV_SYS_00_WIRELESS_REMOTE_OFF</t>
   </si>
   <si>
-    <t>tick_accion &gt; 0</t>
-  </si>
-  <si>
-    <t>tick_accion == 0</t>
-  </si>
-  <si>
-    <t>tick_accion = DEL_SYS_00_MAX</t>
-  </si>
-  <si>
-    <t>tick_accion --</t>
-  </si>
-  <si>
-    <t>raise EV_ACT_00_PRENDIDOO</t>
-  </si>
-  <si>
-    <t>raise EV_ACT_00_APAGADO</t>
-  </si>
-  <si>
-    <t>raise EV_ACT_00_BLINK</t>
-  </si>
-  <si>
     <t>remote == 0</t>
   </si>
   <si>
@@ -206,14 +185,100 @@
   </si>
   <si>
     <t>remote = DEL_SYS_00_ALTA</t>
+  </si>
+  <si>
+    <t>ST_ACT_00_LED_OFF</t>
+  </si>
+  <si>
+    <t>ST_ACT_00_LED_ON</t>
+  </si>
+  <si>
+    <t>EV_ACT_00_LED_ON</t>
+  </si>
+  <si>
+    <t>ST_ACT_00_LED_BLINK_TURN_OFF</t>
+  </si>
+  <si>
+    <t>ST_ACT_00_LED_BLINK_TURN_ON</t>
+  </si>
+  <si>
+    <t>tick_bajando &gt; 0</t>
+  </si>
+  <si>
+    <t>tick_subiendo &gt; 0</t>
+  </si>
+  <si>
+    <t>EV_ACT_00_LED_OFF</t>
+  </si>
+  <si>
+    <t>tick_subiendo == 0</t>
+  </si>
+  <si>
+    <t>tick_bajando == 0</t>
+  </si>
+  <si>
+    <t>raise EV_ACT_00_LED_ON</t>
+  </si>
+  <si>
+    <t>raise EV_ACT_00_LED_OFF</t>
+  </si>
+  <si>
+    <t>raise EV_ACT_00_BLINK_TURN_OFF</t>
+  </si>
+  <si>
+    <t>raise EV_ACT_00_BLINK_TURN_ON</t>
+  </si>
+  <si>
+    <t>EV_ACT_00_BLINK_TURN_ON</t>
+  </si>
+  <si>
+    <t>EV_ACT_00_BLINK_TURN_OFF</t>
+  </si>
+  <si>
+    <t>tick_subiendo = DEL_ACT_00_MAX</t>
+  </si>
+  <si>
+    <t>tick_subiendo --</t>
+  </si>
+  <si>
+    <t>tick_bajando --</t>
+  </si>
+  <si>
+    <t>tick_bajando = DEL_ACT_00_MAX</t>
+  </si>
+  <si>
+    <t>tick_bajando = DEL_ACT_00_MAX - tick_subiendo</t>
+  </si>
+  <si>
+    <t>tick_subiendo = DEL_ACT_00_MAX - tick_bajando</t>
+  </si>
+  <si>
+    <t>tick_bajando = DEL_SYS_00_MAX - tick_subiendo</t>
+  </si>
+  <si>
+    <t>tick_subiendo = DEL_SYS_00_MAX - tick_bajando</t>
+  </si>
+  <si>
+    <t>tick_bajando = DEL_SYS_00_MAX</t>
+  </si>
+  <si>
+    <t>tick_subiendo = DEL_SYS_00_MAX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -229,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -535,11 +600,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,34 +634,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,36 +651,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,9 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -653,38 +681,116 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,13 +1089,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1044,13 +1150,13 @@
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -1139,13 +1245,13 @@
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1215,19 +1321,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:D32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
@@ -1236,77 +1342,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="2" t="s">
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="48"/>
+      <c r="B4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1316,8 +1422,8 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1330,65 +1436,65 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="50"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="48"/>
+      <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1400,8 +1506,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1415,8 +1521,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="26"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
@@ -1427,351 +1533,451 @@
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="35"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="47"/>
+      <c r="B19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="47"/>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="51"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="48"/>
+      <c r="B21" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="59"/>
+      <c r="E21" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="49"/>
+      <c r="B23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="49"/>
+      <c r="B24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="67"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="47"/>
+      <c r="B25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="50"/>
+      <c r="B26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="32"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="47"/>
+      <c r="B28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="47"/>
+      <c r="B29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="62"/>
+      <c r="D29" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="48"/>
+      <c r="B30" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="47"/>
+      <c r="B32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="47"/>
+      <c r="B33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="28" t="s">
+      <c r="D33" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="47"/>
+      <c r="B34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="56"/>
+      <c r="E34" s="41"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="47"/>
+      <c r="B35" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E35" s="40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="48"/>
+      <c r="B36" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="65"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="61"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G37" s="68"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="60"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="26"/>
-      <c r="B21" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="29"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="48"/>
+      <c r="B41" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="40"/>
-      <c r="B23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="40"/>
-      <c r="B24" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="57"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
-      <c r="B25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="E41" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="47"/>
+      <c r="B43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="48"/>
+      <c r="B44" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="48"/>
+      <c r="B46" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="47"/>
+      <c r="B48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="48"/>
+      <c r="B49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="51"/>
-      <c r="B26" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="52"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
-      <c r="B28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="25"/>
-      <c r="B29" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="26"/>
-      <c r="B30" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="25"/>
-      <c r="B32" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="25"/>
-      <c r="B33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="25"/>
-      <c r="B34" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="57"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="25"/>
-      <c r="B35" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="26"/>
-      <c r="B36" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="E49" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A26"/>
+  <mergeCells count="34">
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E35:E36"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B6"/>
@@ -1787,6 +1993,15 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="A27:A30"/>
